--- a/FTS_Curves/Simulations/PB2abcBands.xlsx
+++ b/FTS_Curves/Simulations/PB2abcBands.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arito\Dropbox\LEdit\PB2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamin\Repositories\BolometerCharacterization\FTS_Curves\Simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EE9091-2D38-41A4-8B2A-2DBE87ADB8EF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB7B1BB-BC80-4EE2-9E82-C391E51DB49A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13560" xr2:uid="{21926306-359D-4F22-8E3B-70124CD39E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Freq [GHz]</t>
   </si>
@@ -40,6 +45,27 @@
   </si>
   <si>
     <t>270 GHz Band</t>
+  </si>
+  <si>
+    <t>Frequency GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAG[S21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAG[S31]</t>
+  </si>
+  <si>
+    <t>220 GHz V14</t>
+  </si>
+  <si>
+    <t>270 GHz V14</t>
+  </si>
+  <si>
+    <t>220 GHz BT8</t>
+  </si>
+  <si>
+    <t>270 GHz BT8</t>
   </si>
 </sst>
 </file>
@@ -6196,16 +6222,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>445292</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>150017</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607217</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6530,21 +6556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09088A47-2414-45D6-A332-1924177B3B25}">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:S272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6563,8 +6591,38 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -6583,8 +6641,42 @@
       <c r="G2">
         <v>3.9096361984000003E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I2">
+        <v>180</v>
+      </c>
+      <c r="J2">
+        <v>2.0154600000000002E-3</v>
+      </c>
+      <c r="K2">
+        <v>5.5512899999999997E-2</v>
+      </c>
+      <c r="L2">
+        <f>J2*J2</f>
+        <v>4.0620790116000007E-6</v>
+      </c>
+      <c r="M2">
+        <f>K2*K2</f>
+        <v>3.0816820664099995E-3</v>
+      </c>
+      <c r="O2">
+        <v>180</v>
+      </c>
+      <c r="P2">
+        <v>9.4771999999999995E-2</v>
+      </c>
+      <c r="Q2">
+        <v>5.0165699999999997E-3</v>
+      </c>
+      <c r="R2">
+        <f>P2*P2</f>
+        <v>8.9817319839999993E-3</v>
+      </c>
+      <c r="S2">
+        <f>Q2*Q2</f>
+        <v>2.5165974564899996E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31</v>
       </c>
@@ -6603,8 +6695,42 @@
       <c r="G3">
         <v>4.1101074755999991E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <v>182</v>
+      </c>
+      <c r="J3">
+        <v>3.4204700000000001E-3</v>
+      </c>
+      <c r="K3">
+        <v>7.0925699999999994E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:M66" si="0">J3*J3</f>
+        <v>1.1699615020900001E-5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>5.0304549204899995E-3</v>
+      </c>
+      <c r="O3">
+        <v>181</v>
+      </c>
+      <c r="P3">
+        <v>0.103404</v>
+      </c>
+      <c r="Q3">
+        <v>5.4278199999999999E-3</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:S66" si="1">P3*P3</f>
+        <v>1.0692387215999999E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2.9461229952399998E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>32</v>
       </c>
@@ -6623,8 +6749,42 @@
       <c r="G4">
         <v>4.3221578403999989E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <v>184</v>
+      </c>
+      <c r="J4">
+        <v>4.0837800000000004E-3</v>
+      </c>
+      <c r="K4">
+        <v>8.7069999999999995E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.6677259088400002E-5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>7.5811848999999994E-3</v>
+      </c>
+      <c r="O4">
+        <v>182</v>
+      </c>
+      <c r="P4">
+        <v>0.11328100000000001</v>
+      </c>
+      <c r="Q4">
+        <v>5.6932800000000002E-3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>1.2832584961000001E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>3.2413437158400004E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>33</v>
       </c>
@@ -6643,8 +6803,42 @@
       <c r="G5">
         <v>4.5464900625000003E-6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <v>186</v>
+      </c>
+      <c r="J5">
+        <v>4.54624E-3</v>
+      </c>
+      <c r="K5">
+        <v>0.107782</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.0668298137599999E-5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.1616959524000001E-2</v>
+      </c>
+      <c r="O5">
+        <v>183</v>
+      </c>
+      <c r="P5">
+        <v>0.124408</v>
+      </c>
+      <c r="Q5">
+        <v>5.9072200000000004E-3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>1.5477350464000001E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>3.4895248128400006E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
@@ -6663,8 +6857,42 @@
       <c r="G6">
         <v>4.7839313284000005E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <v>188</v>
+      </c>
+      <c r="J6">
+        <v>4.95109E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.13509199999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>2.4513292188099999E-5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.8249848463999997E-2</v>
+      </c>
+      <c r="O6">
+        <v>184</v>
+      </c>
+      <c r="P6">
+        <v>0.13688800000000001</v>
+      </c>
+      <c r="Q6">
+        <v>6.11248E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>1.8738324544000002E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>3.7362411750400003E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -6683,8 +6911,42 @@
       <c r="G7">
         <v>5.0353116025000013E-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I7">
+        <v>190</v>
+      </c>
+      <c r="J7">
+        <v>5.3472299999999997E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.17209199999999999</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2.8592868672899996E-5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>2.9615656463999999E-2</v>
+      </c>
+      <c r="O7">
+        <v>185</v>
+      </c>
+      <c r="P7">
+        <v>0.150917</v>
+      </c>
+      <c r="Q7">
+        <v>6.3180800000000002E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>2.2775940889E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>3.9918134886400002E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36</v>
       </c>
@@ -6703,8 +6965,42 @@
       <c r="G8">
         <v>5.3015062499999996E-6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <v>192</v>
+      </c>
+      <c r="J8">
+        <v>5.78738E-3</v>
+      </c>
+      <c r="K8">
+        <v>0.223523</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>3.3493767264399997E-5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>4.9962531529000001E-2</v>
+      </c>
+      <c r="O8">
+        <v>186</v>
+      </c>
+      <c r="P8">
+        <v>0.16674</v>
+      </c>
+      <c r="Q8">
+        <v>6.52492E-3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>2.78022276E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>4.2574581006400003E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>37</v>
       </c>
@@ -6723,8 +7019,42 @@
       <c r="G9">
         <v>5.5834854435999998E-6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <v>192.5</v>
+      </c>
+      <c r="J9">
+        <v>5.9155900000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.23940700000000001</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>3.4994205048100004E-5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>5.7315711649000005E-2</v>
+      </c>
+      <c r="O9">
+        <v>187</v>
+      </c>
+      <c r="P9">
+        <v>0.184646</v>
+      </c>
+      <c r="Q9">
+        <v>6.73217E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>3.4094145316000003E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>4.53221129089E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>38</v>
       </c>
@@ -6743,8 +7073,42 @@
       <c r="G10">
         <v>5.8823226225000007E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <v>194</v>
+      </c>
+      <c r="J10">
+        <v>6.3801099999999996E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.29654599999999998</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>4.0705803612099998E-5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>8.7939530115999989E-2</v>
+      </c>
+      <c r="O10">
+        <v>188</v>
+      </c>
+      <c r="P10">
+        <v>0.20497099999999999</v>
+      </c>
+      <c r="Q10">
+        <v>6.9386600000000001E-3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>4.2013110840999991E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>4.8145002595600005E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39</v>
       </c>
@@ -6763,8 +7127,42 @@
       <c r="G11">
         <v>6.1990542441E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <v>196</v>
+      </c>
+      <c r="J11">
+        <v>7.24933E-3</v>
+      </c>
+      <c r="K11">
+        <v>0.40162799999999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>5.25527854489E-5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.16130505038399998</v>
+      </c>
+      <c r="O11">
+        <v>189</v>
+      </c>
+      <c r="P11">
+        <v>0.228106</v>
+      </c>
+      <c r="Q11">
+        <v>7.1432400000000004E-3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>5.2032347236000004E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>5.1025877697600004E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
@@ -6783,8 +7181,42 @@
       <c r="G12">
         <v>6.5348741955999987E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <v>197.5</v>
+      </c>
+      <c r="J12">
+        <v>7.9976200000000004E-3</v>
+      </c>
+      <c r="K12">
+        <v>0.50778800000000002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>6.3961925664400009E-5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.257848652944</v>
+      </c>
+      <c r="O12">
+        <v>190</v>
+      </c>
+      <c r="P12">
+        <v>0.25449899999999998</v>
+      </c>
+      <c r="Q12">
+        <v>7.3451200000000001E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>6.4769741000999984E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>5.3950787814400003E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -6803,8 +7235,42 @@
       <c r="G13">
         <v>6.8910450064000009E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <v>198</v>
+      </c>
+      <c r="J13">
+        <v>8.1719800000000006E-3</v>
+      </c>
+      <c r="K13">
+        <v>0.54770399999999997</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>6.6781257120400014E-5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.29997967161599998</v>
+      </c>
+      <c r="O13">
+        <v>191</v>
+      </c>
+      <c r="P13">
+        <v>0.284661</v>
+      </c>
+      <c r="Q13">
+        <v>7.5442499999999997E-3</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>8.1031884920999997E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>5.6915708062499996E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -6823,8 +7289,42 @@
       <c r="G14">
         <v>7.2689012880999994E-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <v>1.23483E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.65176100000000003</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1.5248051288999998E-4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.42479240112100003</v>
+      </c>
+      <c r="O14">
+        <v>192</v>
+      </c>
+      <c r="P14">
+        <v>0.31914999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>7.7422100000000002E-3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0.1018567225</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>5.9941815684100004E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -6843,8 +7343,42 @@
       <c r="G15">
         <v>7.6699086916000004E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <v>202</v>
+      </c>
+      <c r="J15">
+        <v>3.30277E-3</v>
+      </c>
+      <c r="K15">
+        <v>0.81206400000000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1.09082896729E-5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.65944794009600005</v>
+      </c>
+      <c r="O15">
+        <v>193</v>
+      </c>
+      <c r="P15">
+        <v>0.35854000000000003</v>
+      </c>
+      <c r="Q15">
+        <v>7.9429099999999992E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0.12855093160000003</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>6.3089819268099981E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -6863,8 +7397,42 @@
       <c r="G16">
         <v>8.0955044676000001E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <v>204</v>
+      </c>
+      <c r="J16">
+        <v>6.9454E-3</v>
+      </c>
+      <c r="K16">
+        <v>0.93481199999999998</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>4.8238581160000001E-5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0.87387347534399995</v>
+      </c>
+      <c r="O16">
+        <v>194</v>
+      </c>
+      <c r="P16">
+        <v>0.40330300000000002</v>
+      </c>
+      <c r="Q16">
+        <v>8.1504699999999999E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0.16265330980900003</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>6.6430161220900006E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45</v>
       </c>
@@ -6883,8 +7451,42 @@
       <c r="G17">
         <v>8.5474369600000008E-6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <v>206</v>
+      </c>
+      <c r="J17">
+        <v>7.9399699999999993E-3</v>
+      </c>
+      <c r="K17">
+        <v>0.94846900000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>6.3043123600899995E-5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0.89959344396100005</v>
+      </c>
+      <c r="O17">
+        <v>195</v>
+      </c>
+      <c r="P17">
+        <v>0.45341599999999999</v>
+      </c>
+      <c r="Q17">
+        <v>8.3445399999999992E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0.20558606905599999</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>6.9631347811599981E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>46</v>
       </c>
@@ -6903,8 +7505,42 @@
       <c r="G18">
         <v>9.0273807935999994E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <v>208</v>
+      </c>
+      <c r="J18">
+        <v>9.0688399999999999E-3</v>
+      </c>
+      <c r="K18">
+        <v>0.92266800000000004</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>8.2243858945599995E-5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0.85131623822400004</v>
+      </c>
+      <c r="O18">
+        <v>196</v>
+      </c>
+      <c r="P18">
+        <v>0.50678100000000004</v>
+      </c>
+      <c r="Q18">
+        <v>8.3158899999999994E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0.25682698196100001</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>6.9154026492099986E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>47</v>
       </c>
@@ -6923,8 +7559,42 @@
       <c r="G19">
         <v>9.5371027683999999E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <v>209.5</v>
+      </c>
+      <c r="J19">
+        <v>1.02366E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.90554800000000002</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1.0478797956000001E-4</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.82001718030400006</v>
+      </c>
+      <c r="O19">
+        <v>197</v>
+      </c>
+      <c r="P19">
+        <v>0.55572299999999997</v>
+      </c>
+      <c r="Q19">
+        <v>6.9451299999999999E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0.30882805272899999</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>4.8234830716899999E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>48</v>
       </c>
@@ -6943,8 +7613,42 @@
       <c r="G20">
         <v>1.0078720089999999E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <v>210</v>
+      </c>
+      <c r="J20">
+        <v>1.0695400000000001E-2</v>
+      </c>
+      <c r="K20">
+        <v>0.90189600000000003</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1.1439158116000002E-4</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0.81341639481600003</v>
+      </c>
+      <c r="O20">
+        <v>198</v>
+      </c>
+      <c r="P20">
+        <v>0.60542200000000002</v>
+      </c>
+      <c r="Q20">
+        <v>2.9779799999999999E-3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0.366535798084</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>8.8683648803999988E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>49</v>
       </c>
@@ -6963,8 +7667,42 @@
       <c r="G21">
         <v>1.06542182464E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <v>212</v>
+      </c>
+      <c r="J21">
+        <v>1.2902E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.89931799999999995</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1.6646160400000002E-4</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0.80877286512399993</v>
+      </c>
+      <c r="O21">
+        <v>199</v>
+      </c>
+      <c r="P21">
+        <v>0.67208199999999996</v>
+      </c>
+      <c r="Q21">
+        <v>1.6379599999999999E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>0.45169421472399995</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>2.6829129615999997E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50</v>
       </c>
@@ -6983,8 +7721,42 @@
       <c r="G22">
         <v>1.12658237316E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <v>214</v>
+      </c>
+      <c r="J22">
+        <v>1.4947500000000001E-2</v>
+      </c>
+      <c r="K22">
+        <v>0.91313800000000001</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>2.2342775625000001E-4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0.83382100704399997</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>0.75009800000000004</v>
+      </c>
+      <c r="Q22">
+        <v>1.5185400000000001E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0.56264700960400005</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>2.3059637316000003E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>51</v>
       </c>
@@ -7003,8 +7775,42 @@
       <c r="G23">
         <v>1.1915889763600001E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <v>216</v>
+      </c>
+      <c r="J23">
+        <v>1.60532E-2</v>
+      </c>
+      <c r="K23">
+        <v>0.93573399999999995</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>2.5770523024000003E-4</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.87559811875599991</v>
+      </c>
+      <c r="O23">
+        <v>201</v>
+      </c>
+      <c r="P23">
+        <v>0.81682600000000005</v>
+      </c>
+      <c r="Q23">
+        <v>3.9157999999999997E-3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>0.66720471427600003</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>1.5333489639999997E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>52</v>
       </c>
@@ -7023,8 +7829,42 @@
       <c r="G24">
         <v>1.2606831372100001E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <v>218</v>
+      </c>
+      <c r="J24">
+        <v>1.5791300000000001E-2</v>
+      </c>
+      <c r="K24">
+        <v>0.95538999999999996</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.4936515569000004E-4</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0.91277005209999995</v>
+      </c>
+      <c r="O24">
+        <v>202</v>
+      </c>
+      <c r="P24">
+        <v>0.87454399999999999</v>
+      </c>
+      <c r="Q24">
+        <v>5.5615300000000003E-3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.76482720793600001</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>3.0930615940900006E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>53</v>
       </c>
@@ -7043,8 +7883,42 @@
       <c r="G25">
         <v>1.3341267604899999E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <v>219.5</v>
+      </c>
+      <c r="J25">
+        <v>1.0542899999999999E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.94848699999999997</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1.1115274040999998E-4</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0.89962758916899999</v>
+      </c>
+      <c r="O25">
+        <v>203</v>
+      </c>
+      <c r="P25">
+        <v>0.92057199999999995</v>
+      </c>
+      <c r="Q25">
+        <v>7.1302500000000003E-3</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.84745280718399985</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>5.0840465062500006E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>54</v>
       </c>
@@ -7063,8 +7937,42 @@
       <c r="G26">
         <v>1.4121962726400001E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <v>220</v>
+      </c>
+      <c r="J26">
+        <v>8.9832499999999999E-3</v>
+      </c>
+      <c r="K26">
+        <v>0.94182500000000002</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>8.0698780562500004E-5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>0.88703433062500003</v>
+      </c>
+      <c r="O26">
+        <v>204</v>
+      </c>
+      <c r="P26">
+        <v>0.95382900000000004</v>
+      </c>
+      <c r="Q26">
+        <v>8.6645999999999997E-3</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0.90978976124100008</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>7.5075293160000001E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>55</v>
       </c>
@@ -7083,8 +7991,42 @@
       <c r="G27">
         <v>1.49516782276E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <v>220.5</v>
+      </c>
+      <c r="J27">
+        <v>1.3323E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.94397699999999996</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.77502329E-4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0.89109257652899987</v>
+      </c>
+      <c r="O27">
+        <v>205</v>
+      </c>
+      <c r="P27">
+        <v>0.97508799999999995</v>
+      </c>
+      <c r="Q27">
+        <v>1.01298E-2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.95079660774399988</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>1.0261284803999998E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>56</v>
       </c>
@@ -7103,8 +8045,42 @@
       <c r="G28">
         <v>1.58333959744E-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <v>222</v>
+      </c>
+      <c r="J28">
+        <v>2.9101999999999999E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.96365599999999996</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>8.4692640399999992E-4</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0.92863288633599994</v>
+      </c>
+      <c r="O28">
+        <v>206</v>
+      </c>
+      <c r="P28">
+        <v>0.98646199999999995</v>
+      </c>
+      <c r="Q28">
+        <v>1.14862E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.97310727744399994</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>1.3193279044000002E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>57</v>
       </c>
@@ -7123,8 +8099,42 @@
       <c r="G29">
         <v>1.67700897169E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <v>223</v>
+      </c>
+      <c r="J29">
+        <v>5.7990600000000003E-2</v>
+      </c>
+      <c r="K29">
+        <v>0.89526799999999995</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>3.3629096883600004E-3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0.80150479182399992</v>
+      </c>
+      <c r="O29">
+        <v>207</v>
+      </c>
+      <c r="P29">
+        <v>0.99065599999999998</v>
+      </c>
+      <c r="Q29">
+        <v>1.27107E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.98139931033599992</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>1.6156189449000001E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>58</v>
       </c>
@@ -7143,8 +8153,42 @@
       <c r="G30">
         <v>1.7764791928900001E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <v>224</v>
+      </c>
+      <c r="J30">
+        <v>3.5430200000000002E-2</v>
+      </c>
+      <c r="K30">
+        <v>0.93958600000000003</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>1.2552990720400001E-3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0.88282185139600011</v>
+      </c>
+      <c r="O30">
+        <v>208</v>
+      </c>
+      <c r="P30">
+        <v>0.99028700000000003</v>
+      </c>
+      <c r="Q30">
+        <v>1.3801799999999999E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0.98066834236900002</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>1.9048968323999999E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>59</v>
       </c>
@@ -7163,8 +8207,42 @@
       <c r="G31">
         <v>1.88206733584E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I31">
+        <v>224.5</v>
+      </c>
+      <c r="J31">
+        <v>2.84435E-2</v>
+      </c>
+      <c r="K31">
+        <v>0.95911000000000002</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>8.0903269225000005E-4</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0.91989199210000006</v>
+      </c>
+      <c r="O31">
+        <v>209</v>
+      </c>
+      <c r="P31">
+        <v>0.98748599999999997</v>
+      </c>
+      <c r="Q31">
+        <v>1.4781900000000001E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.9751286001959999</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>2.1850456761000002E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60</v>
       </c>
@@ -7183,8 +8261,42 @@
       <c r="G32">
         <v>1.9940690249999999E-5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I32">
+        <v>225.5</v>
+      </c>
+      <c r="J32">
+        <v>2.8879200000000001E-2</v>
+      </c>
+      <c r="K32">
+        <v>0.96332600000000002</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>8.3400819264E-4</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>0.92799698227600003</v>
+      </c>
+      <c r="O32">
+        <v>210</v>
+      </c>
+      <c r="P32">
+        <v>0.98377400000000004</v>
+      </c>
+      <c r="Q32">
+        <v>1.5695000000000001E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0.96781128307600006</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>2.4633302500000001E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>61</v>
       </c>
@@ -7203,8 +8315,42 @@
       <c r="G33">
         <v>2.112781225E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I33">
+        <v>226</v>
+      </c>
+      <c r="J33">
+        <v>2.97445E-2</v>
+      </c>
+      <c r="K33">
+        <v>0.962557</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>8.8473528024999996E-4</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0.92651597824900001</v>
+      </c>
+      <c r="O33">
+        <v>211</v>
+      </c>
+      <c r="P33">
+        <v>0.98011700000000002</v>
+      </c>
+      <c r="Q33">
+        <v>1.6592200000000001E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0.96062933368900005</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>2.7530110084000007E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>62</v>
       </c>
@@ -7223,8 +8369,42 @@
       <c r="G34">
         <v>2.2384726562500002E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I34">
+        <v>227.5</v>
+      </c>
+      <c r="J34">
+        <v>2.58731E-2</v>
+      </c>
+      <c r="K34">
+        <v>0.95656600000000003</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>6.6941730360999994E-4</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0.91501851235600007</v>
+      </c>
+      <c r="O34">
+        <v>212</v>
+      </c>
+      <c r="P34">
+        <v>0.97707900000000003</v>
+      </c>
+      <c r="Q34">
+        <v>1.7507999999999999E-2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0.95468337224100008</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>3.0653006399999997E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>63</v>
       </c>
@@ -7243,8 +8423,42 @@
       <c r="G35">
         <v>2.3713685908900005E-5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I35">
+        <v>228</v>
+      </c>
+      <c r="J35">
+        <v>4.2196200000000003E-3</v>
+      </c>
+      <c r="K35">
+        <v>0.94202600000000003</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>1.7805192944400003E-5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0.88741298467600005</v>
+      </c>
+      <c r="O35">
+        <v>213</v>
+      </c>
+      <c r="P35">
+        <v>0.97494400000000003</v>
+      </c>
+      <c r="Q35">
+        <v>1.84507E-2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.95051580313600004</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>3.4042833048999999E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>64</v>
       </c>
@@ -7263,8 +8477,42 @@
       <c r="G36">
         <v>2.5116635722500004E-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I36">
+        <v>229</v>
+      </c>
+      <c r="J36">
+        <v>5.99943E-2</v>
+      </c>
+      <c r="K36">
+        <v>0.96096800000000004</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>3.5993160324900002E-3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0.9234594970240001</v>
+      </c>
+      <c r="O36">
+        <v>214</v>
+      </c>
+      <c r="P36">
+        <v>0.97373399999999999</v>
+      </c>
+      <c r="Q36">
+        <v>1.94205E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>0.94815790275599998</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>3.7715582025000003E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>65</v>
       </c>
@@ -7283,8 +8531,42 @@
       <c r="G37">
         <v>2.6594649000000002E-5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I37">
+        <v>229.5</v>
+      </c>
+      <c r="J37">
+        <v>5.6274699999999997E-2</v>
+      </c>
+      <c r="K37">
+        <v>0.96284099999999995</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>3.1668418600899998E-3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0.92706279128099989</v>
+      </c>
+      <c r="O37">
+        <v>215</v>
+      </c>
+      <c r="P37">
+        <v>0.97324500000000003</v>
+      </c>
+      <c r="Q37">
+        <v>2.04218E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>0.94720583002500003</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>4.1704991524000001E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>66</v>
       </c>
@@ -7303,8 +8585,42 @@
       <c r="G38">
         <v>2.8147481376400001E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I38">
+        <v>230</v>
+      </c>
+      <c r="J38">
+        <v>5.5628299999999999E-2</v>
+      </c>
+      <c r="K38">
+        <v>0.96473900000000001</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>3.0945077608899997E-3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>0.930721338121</v>
+      </c>
+      <c r="O38">
+        <v>216</v>
+      </c>
+      <c r="P38">
+        <v>0.97315200000000002</v>
+      </c>
+      <c r="Q38">
+        <v>2.1449200000000002E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>0.94702481510400005</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>4.6006818064000008E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>67</v>
       </c>
@@ -7323,8 +8639,42 @@
       <c r="G39">
         <v>2.9773828771600001E-5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I39">
+        <v>232</v>
+      </c>
+      <c r="J39">
+        <v>5.9481300000000001E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.97807299999999997</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>3.5380250496900001E-3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0.95662679332899991</v>
+      </c>
+      <c r="O39">
+        <v>217</v>
+      </c>
+      <c r="P39">
+        <v>0.97293600000000002</v>
+      </c>
+      <c r="Q39">
+        <v>2.2456500000000001E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>0.94660446009600008</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>5.0429439225000003E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>68</v>
       </c>
@@ -7343,8 +8693,42 @@
       <c r="G40">
         <v>3.14699682361E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I40">
+        <v>234</v>
+      </c>
+      <c r="J40">
+        <v>6.80196E-2</v>
+      </c>
+      <c r="K40">
+        <v>0.99043199999999998</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>4.6266659841600003E-3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0.98095554662399997</v>
+      </c>
+      <c r="O40">
+        <v>218</v>
+      </c>
+      <c r="P40">
+        <v>0.97145300000000001</v>
+      </c>
+      <c r="Q40">
+        <v>2.32605E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>0.94372093120900002</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>5.4105086024999998E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>69</v>
       </c>
@@ -7363,8 +8747,42 @@
       <c r="G41">
         <v>3.3229690830400002E-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I41">
+        <v>234.5</v>
+      </c>
+      <c r="J41">
+        <v>7.1537500000000004E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.98933499999999996</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>5.1176139062500004E-3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0.97878374222499998</v>
+      </c>
+      <c r="O41">
+        <v>219</v>
+      </c>
+      <c r="P41">
+        <v>0.96634299999999995</v>
+      </c>
+      <c r="Q41">
+        <v>2.3479199999999999E-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>0.93381879364899989</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>5.5127283263999992E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>70</v>
       </c>
@@ -7383,8 +8801,42 @@
       <c r="G42">
         <v>3.50429664841E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I42">
+        <v>235.5</v>
+      </c>
+      <c r="J42">
+        <v>8.0778799999999998E-2</v>
+      </c>
+      <c r="K42">
+        <v>0.97242600000000001</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>6.5252145294399993E-3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>0.94561232547600005</v>
+      </c>
+      <c r="O42">
+        <v>220</v>
+      </c>
+      <c r="P42">
+        <v>0.96477599999999997</v>
+      </c>
+      <c r="Q42">
+        <v>2.5045999999999999E-2</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>0.93079273017599995</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>6.2730211599999991E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>71</v>
       </c>
@@ -7403,8 +8855,42 @@
       <c r="G43">
         <v>3.689469081E-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I43">
+        <v>236</v>
+      </c>
+      <c r="J43">
+        <v>8.1128699999999998E-2</v>
+      </c>
+      <c r="K43">
+        <v>0.93525000000000003</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>6.5818659636899994E-3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>0.87469256250000005</v>
+      </c>
+      <c r="O43">
+        <v>221</v>
+      </c>
+      <c r="P43">
+        <v>0.97077999999999998</v>
+      </c>
+      <c r="Q43">
+        <v>2.82116E-2</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>0.9424138084</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>7.9589437455999999E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>72</v>
       </c>
@@ -7423,8 +8909,42 @@
       <c r="G44">
         <v>3.8763574081600008E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I44">
+        <v>236.5</v>
+      </c>
+      <c r="J44">
+        <v>7.6804600000000001E-2</v>
+      </c>
+      <c r="K44">
+        <v>0.874942</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>5.8989465811599999E-3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>0.76552350336399999</v>
+      </c>
+      <c r="O44">
+        <v>222</v>
+      </c>
+      <c r="P44">
+        <v>0.97370100000000004</v>
+      </c>
+      <c r="Q44">
+        <v>3.0759600000000002E-2</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>0.94809363740100006</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>9.4615299216000012E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>73</v>
       </c>
@@ -7443,8 +8963,42 @@
       <c r="G45">
         <v>4.0619080356100001E-5</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I45">
+        <v>237</v>
+      </c>
+      <c r="J45">
+        <v>0.11068600000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.92266499999999996</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1.2251390596000002E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>0.85131070222499994</v>
+      </c>
+      <c r="O45">
+        <v>223</v>
+      </c>
+      <c r="P45">
+        <v>0.97465100000000005</v>
+      </c>
+      <c r="Q45">
+        <v>3.3270599999999997E-2</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>0.94994457180100011</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>1.1069328243599999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>74</v>
       </c>
@@ -7463,8 +9017,42 @@
       <c r="G46">
         <v>4.2419429520399996E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I46">
+        <v>238</v>
+      </c>
+      <c r="J46">
+        <v>0.138236</v>
+      </c>
+      <c r="K46">
+        <v>0.85656399999999999</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1.9109191695999998E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>0.73370188609599996</v>
+      </c>
+      <c r="O46">
+        <v>224</v>
+      </c>
+      <c r="P46">
+        <v>0.97466399999999997</v>
+      </c>
+      <c r="Q46">
+        <v>3.6030399999999997E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>0.94996991289599997</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>1.2981897241599997E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>75</v>
       </c>
@@ -7483,8 +9071,42 @@
       <c r="G47">
         <v>4.4107795476899998E-5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I47">
+        <v>239.5</v>
+      </c>
+      <c r="J47">
+        <v>0.185636</v>
+      </c>
+      <c r="K47">
+        <v>0.71455100000000005</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>3.4460724495999996E-2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>0.51058313160100011</v>
+      </c>
+      <c r="O47">
+        <v>225</v>
+      </c>
+      <c r="P47">
+        <v>0.97414000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>3.9036500000000002E-2</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>0.94894873960000004</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>1.52384833225E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>76</v>
       </c>
@@ -7503,8 +9125,42 @@
       <c r="G48">
         <v>4.5607331022400001E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I48">
+        <v>240</v>
+      </c>
+      <c r="J48">
+        <v>0.20277100000000001</v>
+      </c>
+      <c r="K48">
+        <v>0.66228100000000001</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>4.1116078441000001E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>0.438616122961</v>
+      </c>
+      <c r="O48">
+        <v>226</v>
+      </c>
+      <c r="P48">
+        <v>0.97333700000000001</v>
+      </c>
+      <c r="Q48">
+        <v>4.2098999999999998E-2</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>0.94738491556900006</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>1.7723258009999998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>77</v>
       </c>
@@ -7523,8 +9179,42 @@
       <c r="G49">
         <v>4.68163850625E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I49">
+        <v>240.5</v>
+      </c>
+      <c r="J49">
+        <v>0.21993299999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.60969300000000004</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>4.8370524488999998E-2</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>0.37172555424900006</v>
+      </c>
+      <c r="O49">
+        <v>227</v>
+      </c>
+      <c r="P49">
+        <v>0.97115200000000002</v>
+      </c>
+      <c r="Q49">
+        <v>4.27429E-2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>0.94313620710400003</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>1.82695550041E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>78</v>
       </c>
@@ -7543,8 +9233,42 @@
       <c r="G50">
         <v>4.7601996336400001E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I50">
+        <v>242</v>
+      </c>
+      <c r="J50">
+        <v>0.27102199999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.47468700000000003</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>7.3452924483999996E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>0.22532774796900001</v>
+      </c>
+      <c r="O50">
+        <v>228</v>
+      </c>
+      <c r="P50">
+        <v>0.97227300000000005</v>
+      </c>
+      <c r="Q50">
+        <v>5.1676899999999998E-2</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>0.94531478652900014</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>2.6705019936099999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>79</v>
       </c>
@@ -7563,8 +9287,42 @@
       <c r="G51">
         <v>4.77952378281E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I51">
+        <v>243</v>
+      </c>
+      <c r="J51">
+        <v>0.31599300000000002</v>
+      </c>
+      <c r="K51">
+        <v>0.39689400000000002</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>9.985157604900001E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>0.15752484723600002</v>
+      </c>
+      <c r="O51">
+        <v>229</v>
+      </c>
+      <c r="P51">
+        <v>0.97332099999999999</v>
+      </c>
+      <c r="Q51">
+        <v>5.5374899999999998E-2</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>0.94735376904099999</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>3.0663795500099999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>80</v>
       </c>
@@ -7583,8 +9341,42 @@
       <c r="G52">
         <v>4.7189892860099994E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I52">
+        <v>244</v>
+      </c>
+      <c r="J52">
+        <v>0.36502800000000002</v>
+      </c>
+      <c r="K52">
+        <v>0.32670300000000002</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>0.13324544078400002</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>0.10673485020900002</v>
+      </c>
+      <c r="O52">
+        <v>230</v>
+      </c>
+      <c r="P52">
+        <v>0.97492299999999998</v>
+      </c>
+      <c r="Q52">
+        <v>5.9667400000000002E-2</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>0.95047485592899994</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>3.5601986227600003E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>81</v>
       </c>
@@ -7603,8 +9395,42 @@
       <c r="G53">
         <v>4.5552240577600003E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I53">
+        <v>245.5</v>
+      </c>
+      <c r="J53">
+        <v>0.43814799999999998</v>
+      </c>
+      <c r="K53">
+        <v>0.24696899999999999</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0.19197366990399997</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>6.0993686961E-2</v>
+      </c>
+      <c r="O53">
+        <v>231</v>
+      </c>
+      <c r="P53">
+        <v>0.97757099999999997</v>
+      </c>
+      <c r="Q53">
+        <v>6.43484E-2</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>0.95564506004099992</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>4.1407165825600003E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>82</v>
       </c>
@@ -7623,8 +9449,42 @@
       <c r="G54">
         <v>4.2656050945600006E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I54">
+        <v>246</v>
+      </c>
+      <c r="J54">
+        <v>0.45297199999999999</v>
+      </c>
+      <c r="K54">
+        <v>0.23361899999999999</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>0.20518363278399998</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>5.4577837160999995E-2</v>
+      </c>
+      <c r="O54">
+        <v>232</v>
+      </c>
+      <c r="P54">
+        <v>0.98117200000000004</v>
+      </c>
+      <c r="Q54">
+        <v>6.9444400000000003E-2</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>0.96269849358400006</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>4.8225246913600004E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>83</v>
       </c>
@@ -7643,8 +9503,42 @@
       <c r="G55">
         <v>3.8365264360900002E-5</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I55">
+        <v>248</v>
+      </c>
+      <c r="J55">
+        <v>0.536914</v>
+      </c>
+      <c r="K55">
+        <v>0.177895</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0.28827664339600001</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>3.1646631024999997E-2</v>
+      </c>
+      <c r="O55">
+        <v>233</v>
+      </c>
+      <c r="P55">
+        <v>0.985263</v>
+      </c>
+      <c r="Q55">
+        <v>7.5100700000000006E-2</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>0.97074317916899999</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="1"/>
+        <v>5.6401151404900009E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>84</v>
       </c>
@@ -7663,8 +9557,42 @@
       <c r="G56">
         <v>3.2795894632900002E-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I56">
+        <v>250</v>
+      </c>
+      <c r="J56">
+        <v>0.69309699999999996</v>
+      </c>
+      <c r="K56">
+        <v>0.10878400000000001</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0.48038345140899996</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1.1833958656000001E-2</v>
+      </c>
+      <c r="O56">
+        <v>234</v>
+      </c>
+      <c r="P56">
+        <v>0.98885999999999996</v>
+      </c>
+      <c r="Q56">
+        <v>8.1601199999999999E-2</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>0.97784409959999996</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>6.6587558414399999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>85</v>
       </c>
@@ -7683,8 +9611,42 @@
       <c r="G57">
         <v>2.6566808489999998E-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I57">
+        <v>252</v>
+      </c>
+      <c r="J57">
+        <v>0.80110899999999996</v>
+      </c>
+      <c r="K57">
+        <v>7.0503800000000005E-2</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0.6417756298809999</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>4.9707858144400008E-3</v>
+      </c>
+      <c r="O57">
+        <v>235</v>
+      </c>
+      <c r="P57">
+        <v>0.990313</v>
+      </c>
+      <c r="Q57">
+        <v>8.9523900000000003E-2</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>0.98071983796899997</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="1"/>
+        <v>8.0145286712100007E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>86</v>
       </c>
@@ -7703,8 +9665,42 @@
       <c r="G58">
         <v>2.1064887122499999E-5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I58">
+        <v>254</v>
+      </c>
+      <c r="J58">
+        <v>0.80382299999999995</v>
+      </c>
+      <c r="K58">
+        <v>4.0121499999999997E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>0.64613141532899998</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>1.6097347622499997E-3</v>
+      </c>
+      <c r="O58">
+        <v>236</v>
+      </c>
+      <c r="P58">
+        <v>0.98724299999999998</v>
+      </c>
+      <c r="Q58">
+        <v>0.1004</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>0.97464874104900001</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>1.0080160000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>87</v>
       </c>
@@ -7723,8 +9719,42 @@
       <c r="G59">
         <v>1.8473233802500002E-5</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I59">
+        <v>256</v>
+      </c>
+      <c r="J59">
+        <v>0.90123299999999995</v>
+      </c>
+      <c r="K59">
+        <v>3.9390000000000001E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>0.81222092028899995</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>1.5515721E-3</v>
+      </c>
+      <c r="O59">
+        <v>237</v>
+      </c>
+      <c r="P59">
+        <v>0.97624699999999998</v>
+      </c>
+      <c r="Q59">
+        <v>0.11744599999999999</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>0.95305820500899996</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>1.3793562915999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>88</v>
       </c>
@@ -7743,8 +9773,42 @@
       <c r="G60">
         <v>2.1217539062500001E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I60">
+        <v>258</v>
+      </c>
+      <c r="J60">
+        <v>0.93501400000000001</v>
+      </c>
+      <c r="K60">
+        <v>2.88461E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0.87425118019600001</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>8.3209748520999996E-4</v>
+      </c>
+      <c r="O60">
+        <v>238</v>
+      </c>
+      <c r="P60">
+        <v>0.95260100000000003</v>
+      </c>
+      <c r="Q60">
+        <v>0.14383599999999999</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>0.90744866520100009</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="1"/>
+        <v>2.0688794895999996E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>89</v>
       </c>
@@ -7763,8 +9827,42 @@
       <c r="G61">
         <v>3.0852359160099999E-5</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I61">
+        <v>260</v>
+      </c>
+      <c r="J61">
+        <v>0.92609900000000001</v>
+      </c>
+      <c r="K61">
+        <v>1.26038E-2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>0.857659357801</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>1.5885577444000001E-4</v>
+      </c>
+      <c r="O61">
+        <v>239</v>
+      </c>
+      <c r="P61">
+        <v>0.91159699999999999</v>
+      </c>
+      <c r="Q61">
+        <v>0.18074799999999999</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>0.83100909040899995</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="1"/>
+        <v>3.2669839503999994E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>90</v>
       </c>
@@ -7783,8 +9881,42 @@
       <c r="G62">
         <v>4.7164341816899991E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I62">
+        <v>262</v>
+      </c>
+      <c r="J62">
+        <v>0.94037700000000002</v>
+      </c>
+      <c r="K62">
+        <v>4.7641500000000003E-2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0.88430890212900004</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>2.2697125222500003E-3</v>
+      </c>
+      <c r="O62">
+        <v>240</v>
+      </c>
+      <c r="P62">
+        <v>0.85077999999999998</v>
+      </c>
+      <c r="Q62">
+        <v>0.227881</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>0.72382660840000002</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="1"/>
+        <v>5.1929750161000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>91</v>
       </c>
@@ -7803,8 +9935,42 @@
       <c r="G63">
         <v>6.8339320897599994E-5</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I63">
+        <v>264</v>
+      </c>
+      <c r="J63">
+        <v>0.91992700000000005</v>
+      </c>
+      <c r="K63">
+        <v>2.12076E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>0.84626568532900004</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>4.4976229776000001E-4</v>
+      </c>
+      <c r="O63">
+        <v>241</v>
+      </c>
+      <c r="P63">
+        <v>0.771513</v>
+      </c>
+      <c r="Q63">
+        <v>0.28400799999999998</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>0.59523230916900005</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="1"/>
+        <v>8.0660544063999987E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>92</v>
       </c>
@@ -7823,8 +9989,42 @@
       <c r="G64">
         <v>9.1987472820100006E-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I64">
+        <v>266</v>
+      </c>
+      <c r="J64">
+        <v>0.96030199999999999</v>
+      </c>
+      <c r="K64">
+        <v>2.5157100000000002E-2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>0.92217993120399999</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>6.3287968041000008E-4</v>
+      </c>
+      <c r="O64">
+        <v>242</v>
+      </c>
+      <c r="P64">
+        <v>0.67881800000000003</v>
+      </c>
+      <c r="Q64">
+        <v>0.347472</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>0.46079387712400005</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="1"/>
+        <v>0.120736790784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>93</v>
       </c>
@@ -7843,8 +10043,42 @@
       <c r="G65">
         <v>1.1608985024999998E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I65">
+        <v>266.5</v>
+      </c>
+      <c r="J65">
+        <v>0.96331900000000004</v>
+      </c>
+      <c r="K65">
+        <v>2.5648299999999999E-2</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>0.92798349576100003</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>6.5783529288999997E-4</v>
+      </c>
+      <c r="O65">
+        <v>243</v>
+      </c>
+      <c r="P65">
+        <v>0.57937499999999997</v>
+      </c>
+      <c r="Q65">
+        <v>0.41660799999999998</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>0.33567539062499996</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="1"/>
+        <v>0.17356222566399998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>94</v>
       </c>
@@ -7863,8 +10097,42 @@
       <c r="G66">
         <v>1.39358025E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I66">
+        <v>268</v>
+      </c>
+      <c r="J66">
+        <v>0.96778399999999998</v>
+      </c>
+      <c r="K66">
+        <v>2.6856000000000001E-2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>0.93660587065599998</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>7.212447360000001E-4</v>
+      </c>
+      <c r="O66">
+        <v>244</v>
+      </c>
+      <c r="P66">
+        <v>0.47932900000000001</v>
+      </c>
+      <c r="Q66">
+        <v>0.48750300000000002</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>0.229756290241</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="1"/>
+        <v>0.23765917500900002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>95</v>
       </c>
@@ -7883,8 +10151,42 @@
       <c r="G67">
         <v>1.6115794703999999E-4</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I67">
+        <v>270</v>
+      </c>
+      <c r="J67">
+        <v>0.96190100000000001</v>
+      </c>
+      <c r="K67">
+        <v>3.3212199999999997E-2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:M90" si="2">J67*J67</f>
+        <v>0.92525353380100006</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="2"/>
+        <v>1.1030502288399999E-3</v>
+      </c>
+      <c r="O67">
+        <v>245</v>
+      </c>
+      <c r="P67">
+        <v>0.39353199999999999</v>
+      </c>
+      <c r="Q67">
+        <v>0.53712199999999999</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:S122" si="3">P67*P67</f>
+        <v>0.15486743502399999</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="3"/>
+        <v>0.288500042884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>96</v>
       </c>
@@ -7903,8 +10205,42 @@
       <c r="G68">
         <v>1.8129814609E-4</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I68">
+        <v>272</v>
+      </c>
+      <c r="J68">
+        <v>0.79232899999999995</v>
+      </c>
+      <c r="K68">
+        <v>0.10911800000000001</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="2"/>
+        <v>0.62778524424099991</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="2"/>
+        <v>1.1906737924000002E-2</v>
+      </c>
+      <c r="O68">
+        <v>246</v>
+      </c>
+      <c r="P68">
+        <v>0.32754</v>
+      </c>
+      <c r="Q68">
+        <v>0.59728400000000004</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>0.1072824516</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="3"/>
+        <v>0.35674817665600006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>97</v>
       </c>
@@ -7923,8 +10259,42 @@
       <c r="G69">
         <v>1.9986890625000003E-4</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I69">
+        <v>273</v>
+      </c>
+      <c r="J69">
+        <v>0.93663700000000005</v>
+      </c>
+      <c r="K69">
+        <v>2.67826E-2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="2"/>
+        <v>0.87728886976900011</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="2"/>
+        <v>7.1730766276000002E-4</v>
+      </c>
+      <c r="O69">
+        <v>247</v>
+      </c>
+      <c r="P69">
+        <v>0.25797199999999998</v>
+      </c>
+      <c r="Q69">
+        <v>0.682948</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="3"/>
+        <v>6.6549552783999988E-2</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="3"/>
+        <v>0.46641797070399998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>98</v>
       </c>
@@ -7943,8 +10313,42 @@
       <c r="G70">
         <v>2.1717916899999999E-4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I70">
+        <v>274</v>
+      </c>
+      <c r="J70">
+        <v>0.93403999999999998</v>
+      </c>
+      <c r="K70">
+        <v>2.1180999999999998E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="2"/>
+        <v>0.87243072160000001</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="2"/>
+        <v>4.4863476099999994E-4</v>
+      </c>
+      <c r="O70">
+        <v>248</v>
+      </c>
+      <c r="P70">
+        <v>0.19823199999999999</v>
+      </c>
+      <c r="Q70">
+        <v>0.76255499999999998</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="3"/>
+        <v>3.9295925823999996E-2</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="3"/>
+        <v>0.581490128025</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>99</v>
       </c>
@@ -7963,8 +10367,42 @@
       <c r="G71">
         <v>2.3378409999999999E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I71">
+        <v>276</v>
+      </c>
+      <c r="J71">
+        <v>0.74714499999999995</v>
+      </c>
+      <c r="K71">
+        <v>7.5762200000000002E-2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="2"/>
+        <v>0.55822565102499988</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="2"/>
+        <v>5.7399109488400005E-3</v>
+      </c>
+      <c r="O71">
+        <v>249</v>
+      </c>
+      <c r="P71">
+        <v>0.15193499999999999</v>
+      </c>
+      <c r="Q71">
+        <v>0.83255999999999997</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="3"/>
+        <v>2.3084244224999995E-2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="3"/>
+        <v>0.69315615359999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>100</v>
       </c>
@@ -7983,8 +10421,42 @@
       <c r="G72">
         <v>2.5057623616E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I72">
+        <v>277.5</v>
+      </c>
+      <c r="J72">
+        <v>0.96312200000000003</v>
+      </c>
+      <c r="K72">
+        <v>1.0995400000000001E-2</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="2"/>
+        <v>0.92760398688400003</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="2"/>
+        <v>1.2089882116000002E-4</v>
+      </c>
+      <c r="O72">
+        <v>250</v>
+      </c>
+      <c r="P72">
+        <v>0.12034400000000001</v>
+      </c>
+      <c r="Q72">
+        <v>0.89009000000000005</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="3"/>
+        <v>1.4482678336000001E-2</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="3"/>
+        <v>0.79226020810000009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>101</v>
       </c>
@@ -8003,8 +10475,42 @@
       <c r="G73">
         <v>2.6891080225000002E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I73">
+        <v>278</v>
+      </c>
+      <c r="J73">
+        <v>0.96530199999999999</v>
+      </c>
+      <c r="K73">
+        <v>1.05495E-2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="2"/>
+        <v>0.93180795120399995</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="2"/>
+        <v>1.1129195025E-4</v>
+      </c>
+      <c r="O73">
+        <v>251</v>
+      </c>
+      <c r="P73">
+        <v>0.102755</v>
+      </c>
+      <c r="Q73">
+        <v>0.93288499999999996</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="3"/>
+        <v>1.0558590025E-2</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="3"/>
+        <v>0.87027442322499993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>102</v>
       </c>
@@ -8023,8 +10529,42 @@
       <c r="G74">
         <v>2.9076388323999994E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I74">
+        <v>280</v>
+      </c>
+      <c r="J74">
+        <v>0.967136</v>
+      </c>
+      <c r="K74">
+        <v>1.0135E-2</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="2"/>
+        <v>0.93535204249600001</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="2"/>
+        <v>1.02718225E-4</v>
+      </c>
+      <c r="O74">
+        <v>252</v>
+      </c>
+      <c r="P74">
+        <v>9.5240000000000005E-2</v>
+      </c>
+      <c r="Q74">
+        <v>0.96055599999999997</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="3"/>
+        <v>9.0706576000000004E-3</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="3"/>
+        <v>0.92266782913599998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>103</v>
       </c>
@@ -8043,8 +10583,42 @@
       <c r="G75">
         <v>3.1887244900000004E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I75">
+        <v>282</v>
+      </c>
+      <c r="J75">
+        <v>0.94668200000000002</v>
+      </c>
+      <c r="K75">
+        <v>8.5342500000000002E-3</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="2"/>
+        <v>0.89620680912400008</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="2"/>
+        <v>7.2833423062500002E-5</v>
+      </c>
+      <c r="O75">
+        <v>253</v>
+      </c>
+      <c r="P75">
+        <v>9.2335600000000004E-2</v>
+      </c>
+      <c r="Q75">
+        <v>0.97472499999999995</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="3"/>
+        <v>8.5258630273600013E-3</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="3"/>
+        <v>0.95008882562499986</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>104</v>
       </c>
@@ -8063,8 +10637,42 @@
       <c r="G76">
         <v>3.5681321025000001E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I76">
+        <v>282.5</v>
+      </c>
+      <c r="J76">
+        <v>0.93579699999999999</v>
+      </c>
+      <c r="K76">
+        <v>8.1052299999999997E-3</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="2"/>
+        <v>0.87571602520899994</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="2"/>
+        <v>6.5694753352899999E-5</v>
+      </c>
+      <c r="O76">
+        <v>254</v>
+      </c>
+      <c r="P76">
+        <v>9.0006799999999998E-2</v>
+      </c>
+      <c r="Q76">
+        <v>0.97847399999999995</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="3"/>
+        <v>8.1012240462400003E-3</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="3"/>
+        <v>0.95741136867599996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>105</v>
       </c>
@@ -8083,8 +10691,42 @@
       <c r="G77">
         <v>4.0901422080999992E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I77">
+        <v>284</v>
+      </c>
+      <c r="J77">
+        <v>0.88509800000000005</v>
+      </c>
+      <c r="K77">
+        <v>7.6160000000000004E-3</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="2"/>
+        <v>0.78339846960400006</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="2"/>
+        <v>5.8003456000000008E-5</v>
+      </c>
+      <c r="O77">
+        <v>255</v>
+      </c>
+      <c r="P77">
+        <v>8.6895899999999998E-2</v>
+      </c>
+      <c r="Q77">
+        <v>0.97601300000000002</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="3"/>
+        <v>7.5508974368099996E-3</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="3"/>
+        <v>0.95260137616900009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>106</v>
       </c>
@@ -8103,8 +10745,42 @@
       <c r="G78">
         <v>4.8057408400000004E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I78">
+        <v>285.5</v>
+      </c>
+      <c r="J78">
+        <v>0.81354599999999999</v>
+      </c>
+      <c r="K78">
+        <v>1.2885199999999999E-2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="2"/>
+        <v>0.66185709411600002</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="2"/>
+        <v>1.6602837903999999E-4</v>
+      </c>
+      <c r="O78">
+        <v>256</v>
+      </c>
+      <c r="P78">
+        <v>8.4537200000000007E-2</v>
+      </c>
+      <c r="Q78">
+        <v>0.97063600000000005</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="3"/>
+        <v>7.1465381838400014E-3</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="3"/>
+        <v>0.94213424449600014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>107</v>
       </c>
@@ -8123,8 +10799,42 @@
       <c r="G79">
         <v>5.7703246225000011E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I79">
+        <v>286</v>
+      </c>
+      <c r="J79">
+        <v>0.78172699999999995</v>
+      </c>
+      <c r="K79">
+        <v>1.5859700000000001E-2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="2"/>
+        <v>0.61109710252899996</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="2"/>
+        <v>2.5153008409000002E-4</v>
+      </c>
+      <c r="O79">
+        <v>257</v>
+      </c>
+      <c r="P79">
+        <v>9.2283699999999996E-2</v>
+      </c>
+      <c r="Q79">
+        <v>0.93479299999999999</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="3"/>
+        <v>8.51628128569E-3</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="3"/>
+        <v>0.87383795284900001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>108</v>
       </c>
@@ -8143,8 +10853,42 @@
       <c r="G80">
         <v>7.0397886276000001E-4</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I80">
+        <v>287</v>
+      </c>
+      <c r="J80">
+        <v>0.67431700000000006</v>
+      </c>
+      <c r="K80">
+        <v>1.4613900000000001E-2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="2"/>
+        <v>0.45470341648900009</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="2"/>
+        <v>2.1356607321000001E-4</v>
+      </c>
+      <c r="O80">
+        <v>258</v>
+      </c>
+      <c r="P80">
+        <v>5.7594699999999999E-2</v>
+      </c>
+      <c r="Q80">
+        <v>0.95749499999999999</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="3"/>
+        <v>3.3171494680900001E-3</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="3"/>
+        <v>0.91679667502499995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>109</v>
       </c>
@@ -8163,8 +10907,42 @@
       <c r="G81">
         <v>8.6670182403999997E-4</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I81">
+        <v>288</v>
+      </c>
+      <c r="J81">
+        <v>0.628973</v>
+      </c>
+      <c r="K81">
+        <v>2.4448600000000001E-3</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="2"/>
+        <v>0.395607034729</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="2"/>
+        <v>5.9773404196000006E-6</v>
+      </c>
+      <c r="O81">
+        <v>259</v>
+      </c>
+      <c r="P81">
+        <v>5.9401799999999998E-2</v>
+      </c>
+      <c r="Q81">
+        <v>0.96188300000000004</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="3"/>
+        <v>3.5285738432399997E-3</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="3"/>
+        <v>0.92521890568900012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>110</v>
       </c>
@@ -8183,8 +10961,42 @@
       <c r="G82">
         <v>1.0698263472400001E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I82">
+        <v>288.5</v>
+      </c>
+      <c r="J82">
+        <v>0.60573200000000005</v>
+      </c>
+      <c r="K82">
+        <v>3.8256000000000002E-3</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="2"/>
+        <v>0.36691125582400008</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="2"/>
+        <v>1.4635215360000002E-5</v>
+      </c>
+      <c r="O82">
+        <v>260</v>
+      </c>
+      <c r="P82">
+        <v>5.5764300000000003E-2</v>
+      </c>
+      <c r="Q82">
+        <v>0.961561</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="3"/>
+        <v>3.1096571544900003E-3</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="3"/>
+        <v>0.92459955672100003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>111</v>
       </c>
@@ -8203,8 +11015,42 @@
       <c r="G83">
         <v>1.3170294228100001E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I83">
+        <v>289</v>
+      </c>
+      <c r="J83">
+        <v>0.57919299999999996</v>
+      </c>
+      <c r="K83">
+        <v>5.8618400000000001E-3</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="2"/>
+        <v>0.33546453124899994</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="2"/>
+        <v>3.4361168185600001E-5</v>
+      </c>
+      <c r="O83">
+        <v>261</v>
+      </c>
+      <c r="P83">
+        <v>5.1241000000000002E-2</v>
+      </c>
+      <c r="Q83">
+        <v>0.96230099999999996</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="3"/>
+        <v>2.6256400810000004E-3</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="3"/>
+        <v>0.9260232146009999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>112</v>
       </c>
@@ -8223,8 +11069,42 @@
       <c r="G84">
         <v>1.6108423060899998E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I84">
+        <v>290</v>
+      </c>
+      <c r="J84">
+        <v>0.52173700000000001</v>
+      </c>
+      <c r="K84">
+        <v>9.5493599999999998E-3</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="2"/>
+        <v>0.272209497169</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="2"/>
+        <v>9.1190276409600001E-5</v>
+      </c>
+      <c r="O84">
+        <v>262</v>
+      </c>
+      <c r="P84">
+        <v>4.6629499999999997E-2</v>
+      </c>
+      <c r="Q84">
+        <v>0.96445599999999998</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>2.1743102702499999E-3</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="3"/>
+        <v>0.93017537593599997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>113</v>
       </c>
@@ -8243,8 +11123,42 @@
       <c r="G85">
         <v>1.9523053880099999E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I85">
+        <v>291.5</v>
+      </c>
+      <c r="J85">
+        <v>0.43701800000000002</v>
+      </c>
+      <c r="K85">
+        <v>1.30118E-2</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="2"/>
+        <v>0.19098473232400001</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="2"/>
+        <v>1.6930693924000002E-4</v>
+      </c>
+      <c r="O85">
+        <v>263</v>
+      </c>
+      <c r="P85">
+        <v>4.2255300000000003E-2</v>
+      </c>
+      <c r="Q85">
+        <v>0.967835</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="3"/>
+        <v>1.7855103780900002E-3</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="3"/>
+        <v>0.93670458722500005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>114</v>
       </c>
@@ -8263,8 +11177,42 @@
       <c r="G86">
         <v>2.3405856961600004E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I86">
+        <v>292</v>
+      </c>
+      <c r="J86">
+        <v>0.417487</v>
+      </c>
+      <c r="K86">
+        <v>1.3047899999999999E-2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="2"/>
+        <v>0.174295395169</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="2"/>
+        <v>1.7024769440999999E-4</v>
+      </c>
+      <c r="O86">
+        <v>264</v>
+      </c>
+      <c r="P86">
+        <v>3.8305199999999998E-2</v>
+      </c>
+      <c r="Q86">
+        <v>0.97207600000000005</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="3"/>
+        <v>1.4672883470399998E-3</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="3"/>
+        <v>0.94493174977600014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>115</v>
       </c>
@@ -8283,8 +11231,42 @@
       <c r="G87">
         <v>2.7722541648400002E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I87">
+        <v>294</v>
+      </c>
+      <c r="J87">
+        <v>0.31119400000000003</v>
+      </c>
+      <c r="K87">
+        <v>1.13014E-2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="2"/>
+        <v>9.6841705636000017E-2</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="2"/>
+        <v>1.2772164195999999E-4</v>
+      </c>
+      <c r="O87">
+        <v>265</v>
+      </c>
+      <c r="P87">
+        <v>3.4894300000000003E-2</v>
+      </c>
+      <c r="Q87">
+        <v>0.97676799999999997</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="3"/>
+        <v>1.2176121724900002E-3</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="3"/>
+        <v>0.95407572582399991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>116</v>
       </c>
@@ -8303,8 +11285,42 @@
       <c r="G88">
         <v>3.2405580908100003E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I88">
+        <v>296</v>
+      </c>
+      <c r="J88">
+        <v>0.24570400000000001</v>
+      </c>
+      <c r="K88">
+        <v>1.6173199999999999E-2</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="2"/>
+        <v>6.0370455616000004E-2</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="2"/>
+        <v>2.6157239823999996E-4</v>
+      </c>
+      <c r="O88">
+        <v>266</v>
+      </c>
+      <c r="P88">
+        <v>3.2087299999999999E-2</v>
+      </c>
+      <c r="Q88">
+        <v>0.98145199999999999</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="3"/>
+        <v>1.02959482129E-3</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="3"/>
+        <v>0.96324802830400003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>117</v>
       </c>
@@ -8323,8 +11339,42 @@
       <c r="G89">
         <v>3.7347743238400001E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I89">
+        <v>298</v>
+      </c>
+      <c r="J89">
+        <v>0.224352</v>
+      </c>
+      <c r="K89">
+        <v>8.3938799999999994E-3</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="2"/>
+        <v>5.0333819903999995E-2</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="2"/>
+        <v>7.0457221454399991E-5</v>
+      </c>
+      <c r="O89">
+        <v>267</v>
+      </c>
+      <c r="P89">
+        <v>2.9926700000000001E-2</v>
+      </c>
+      <c r="Q89">
+        <v>0.98553900000000005</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="3"/>
+        <v>8.9560737289E-4</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="3"/>
+        <v>0.97128712052100008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>118</v>
       </c>
@@ -8343,8 +11393,42 @@
       <c r="G90">
         <v>4.2411223512099994E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I90">
+        <v>300</v>
+      </c>
+      <c r="J90">
+        <v>0.17841799999999999</v>
+      </c>
+      <c r="K90">
+        <v>1.02448E-2</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="2"/>
+        <v>3.1832982723999995E-2</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="2"/>
+        <v>1.0495592704E-4</v>
+      </c>
+      <c r="O90">
+        <v>268</v>
+      </c>
+      <c r="P90">
+        <v>2.8500299999999999E-2</v>
+      </c>
+      <c r="Q90">
+        <v>0.98818399999999995</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="3"/>
+        <v>8.1226710008999996E-4</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="3"/>
+        <v>0.97650761785599993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>119</v>
       </c>
@@ -8363,8 +11447,25 @@
       <c r="G91">
         <v>4.7477612160000005E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <v>269</v>
+      </c>
+      <c r="P91">
+        <v>2.8284500000000001E-2</v>
+      </c>
+      <c r="Q91">
+        <v>0.98727799999999999</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>8.0001294025000005E-4</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="3"/>
+        <v>0.97471784928399996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>120</v>
       </c>
@@ -8383,8 +11484,25 @@
       <c r="G92">
         <v>5.260513864359999E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <v>270</v>
+      </c>
+      <c r="P92">
+        <v>3.5909900000000002E-2</v>
+      </c>
+      <c r="Q92">
+        <v>0.95182500000000003</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>1.2895209180100002E-3</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="3"/>
+        <v>0.90597083062500006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>121</v>
       </c>
@@ -8403,8 +11521,25 @@
       <c r="G93">
         <v>5.8415907580900012E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <v>271</v>
+      </c>
+      <c r="P93">
+        <v>2.6550500000000001E-2</v>
+      </c>
+      <c r="Q93">
+        <v>0.96360800000000002</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="3"/>
+        <v>7.049290502500001E-4</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="3"/>
+        <v>0.92854037766399999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122</v>
       </c>
@@ -8423,8 +11558,25 @@
       <c r="G94">
         <v>6.6912236400099995E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <v>272</v>
+      </c>
+      <c r="P94">
+        <v>2.1552700000000001E-2</v>
+      </c>
+      <c r="Q94">
+        <v>0.97856799999999999</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="3"/>
+        <v>4.6451887729000006E-4</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="3"/>
+        <v>0.95759533062400004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>123</v>
       </c>
@@ -8443,8 +11595,25 @@
       <c r="G95">
         <v>8.2923789062500017E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <v>273</v>
+      </c>
+      <c r="P95">
+        <v>1.63232E-2</v>
+      </c>
+      <c r="Q95">
+        <v>0.95693899999999998</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="3"/>
+        <v>2.6644685824E-4</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="3"/>
+        <v>0.91573224972099998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>124</v>
       </c>
@@ -8463,8 +11632,25 @@
       <c r="G96">
         <v>1.1604244729000001E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <v>274</v>
+      </c>
+      <c r="P96">
+        <v>1.8356999999999998E-2</v>
+      </c>
+      <c r="Q96">
+        <v>0.97106999999999999</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="3"/>
+        <v>3.3697944899999994E-4</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="3"/>
+        <v>0.94297694489999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>125</v>
       </c>
@@ -8483,8 +11669,25 @@
       <c r="G97">
         <v>1.8192614400000001E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <v>275</v>
+      </c>
+      <c r="P97">
+        <v>1.97279E-2</v>
+      </c>
+      <c r="Q97">
+        <v>0.97775100000000004</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="3"/>
+        <v>3.8919003840999999E-4</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="3"/>
+        <v>0.95599701800100012</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>126</v>
       </c>
@@ -8503,8 +11706,25 @@
       <c r="G98">
         <v>3.00883716E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <v>276</v>
+      </c>
+      <c r="P98">
+        <v>1.87511E-2</v>
+      </c>
+      <c r="Q98">
+        <v>0.97582000000000002</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="3"/>
+        <v>3.5160375121E-4</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="3"/>
+        <v>0.95222467240000008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>127</v>
       </c>
@@ -8523,8 +11743,25 @@
       <c r="G99">
         <v>4.9296432783999998E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <v>277</v>
+      </c>
+      <c r="P99">
+        <v>1.40333E-2</v>
+      </c>
+      <c r="Q99">
+        <v>0.96920099999999998</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="3"/>
+        <v>1.9693350889000001E-4</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="3"/>
+        <v>0.939350578401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>128</v>
       </c>
@@ -8543,8 +11780,25 @@
       <c r="G100">
         <v>7.7302905155999996E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <v>278</v>
+      </c>
+      <c r="P100">
+        <v>3.3508299999999998E-2</v>
+      </c>
+      <c r="Q100">
+        <v>0.96562700000000001</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="3"/>
+        <v>1.1228061688899999E-3</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="3"/>
+        <v>0.93243550312900003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>129</v>
       </c>
@@ -8563,8 +11817,25 @@
       <c r="G101">
         <v>0.115057996804</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <v>279</v>
+      </c>
+      <c r="P101">
+        <v>2.20553E-2</v>
+      </c>
+      <c r="Q101">
+        <v>0.97937300000000005</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="3"/>
+        <v>4.8643625808999998E-4</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="3"/>
+        <v>0.95917147312900009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>130</v>
       </c>
@@ -8583,8 +11854,25 @@
       <c r="G102">
         <v>0.16336147239999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O102">
+        <v>280</v>
+      </c>
+      <c r="P102">
+        <v>1.9368400000000001E-2</v>
+      </c>
+      <c r="Q102">
+        <v>0.97963199999999995</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="3"/>
+        <v>3.7513491856000004E-4</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="3"/>
+        <v>0.95967885542399989</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>131</v>
       </c>
@@ -8603,8 +11891,25 @@
       <c r="G103">
         <v>0.22312491432099998</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O103">
+        <v>281</v>
+      </c>
+      <c r="P103">
+        <v>1.7506799999999999E-2</v>
+      </c>
+      <c r="Q103">
+        <v>0.97741199999999995</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="3"/>
+        <v>3.0648804624E-4</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="3"/>
+        <v>0.95533421774399985</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>132</v>
       </c>
@@ -8623,8 +11928,25 @@
       <c r="G104">
         <v>0.29515424496100001</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O104">
+        <v>282</v>
+      </c>
+      <c r="P104">
+        <v>1.5795300000000002E-2</v>
+      </c>
+      <c r="Q104">
+        <v>0.97145700000000001</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="3"/>
+        <v>2.4949150209000007E-4</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="3"/>
+        <v>0.94372870284900001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>133</v>
       </c>
@@ -8643,8 +11965,25 @@
       <c r="G105">
         <v>0.37944244812100003</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O105">
+        <v>283</v>
+      </c>
+      <c r="P105">
+        <v>1.4123500000000001E-2</v>
+      </c>
+      <c r="Q105">
+        <v>0.95953299999999997</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="3"/>
+        <v>1.9947325225000003E-4</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="3"/>
+        <v>0.92070357808899994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>134</v>
       </c>
@@ -8663,8 +12002,25 @@
       <c r="G106">
         <v>0.47420714512899997</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O106">
+        <v>284</v>
+      </c>
+      <c r="P106">
+        <v>1.2701499999999999E-2</v>
+      </c>
+      <c r="Q106">
+        <v>0.93806</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="3"/>
+        <v>1.6132810224999997E-4</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="3"/>
+        <v>0.87995656359999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>135</v>
       </c>
@@ -8683,8 +12039,25 @@
       <c r="G107">
         <v>0.57511292304399997</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O107">
+        <v>285</v>
+      </c>
+      <c r="P107">
+        <v>1.2442E-2</v>
+      </c>
+      <c r="Q107">
+        <v>0.89466299999999999</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="3"/>
+        <v>1.54803364E-4</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="3"/>
+        <v>0.80042188356900001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>136</v>
       </c>
@@ -8703,8 +12076,25 @@
       <c r="G108">
         <v>0.67531415062500011</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O108">
+        <v>286</v>
+      </c>
+      <c r="P108">
+        <v>1.0630199999999999E-2</v>
+      </c>
+      <c r="Q108">
+        <v>0.83472900000000005</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="3"/>
+        <v>1.1300115203999999E-4</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="3"/>
+        <v>0.69677250344100006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>137</v>
       </c>
@@ -8723,8 +12113,25 @@
       <c r="G109">
         <v>0.7668242192250001</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O109">
+        <v>287</v>
+      </c>
+      <c r="P109">
+        <v>9.17222E-3</v>
+      </c>
+      <c r="Q109">
+        <v>0.80028600000000005</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="3"/>
+        <v>8.4129619728400007E-5</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="3"/>
+        <v>0.64045768179600004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>138</v>
       </c>
@@ -8743,8 +12150,25 @@
       <c r="G110">
         <v>0.84282865524899997</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O110">
+        <v>288</v>
+      </c>
+      <c r="P110">
+        <v>1.3170299999999999E-2</v>
+      </c>
+      <c r="Q110">
+        <v>0.74416000000000004</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="3"/>
+        <v>1.7345680209E-4</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="3"/>
+        <v>0.55377410560000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>139</v>
       </c>
@@ -8763,8 +12187,25 @@
       <c r="G111">
         <v>0.89973761702499999</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O111">
+        <v>289</v>
+      </c>
+      <c r="P111">
+        <v>6.1211799999999997E-2</v>
+      </c>
+      <c r="Q111">
+        <v>0.45127099999999998</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="3"/>
+        <v>3.7468844592399996E-3</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="3"/>
+        <v>0.20364551544099999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>140</v>
       </c>
@@ -8783,8 +12224,25 @@
       <c r="G112">
         <v>0.93776369792399994</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O112">
+        <v>290</v>
+      </c>
+      <c r="P112">
+        <v>2.0379000000000001E-2</v>
+      </c>
+      <c r="Q112">
+        <v>0.66393400000000002</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="3"/>
+        <v>4.1530364100000005E-4</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="3"/>
+        <v>0.44080835635600002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>141</v>
       </c>
@@ -8803,8 +12261,25 @@
       <c r="G113">
         <v>0.95997276752400007</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O113">
+        <v>291</v>
+      </c>
+      <c r="P113">
+        <v>1.3624600000000001E-2</v>
+      </c>
+      <c r="Q113">
+        <v>0.57717200000000002</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="3"/>
+        <v>1.8562972516000001E-4</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="3"/>
+        <v>0.333127517584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>142</v>
       </c>
@@ -8823,8 +12298,25 @@
       <c r="G114">
         <v>0.97069391664399984</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O114">
+        <v>292</v>
+      </c>
+      <c r="P114">
+        <v>1.37667E-2</v>
+      </c>
+      <c r="Q114">
+        <v>0.50564100000000001</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="3"/>
+        <v>1.8952202889E-4</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="3"/>
+        <v>0.25567282088100002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>143</v>
       </c>
@@ -8843,8 +12335,25 @@
       <c r="G115">
         <v>0.97417887002500003</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O115">
+        <v>293</v>
+      </c>
+      <c r="P115">
+        <v>1.09275E-2</v>
+      </c>
+      <c r="Q115">
+        <v>0.466362</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="3"/>
+        <v>1.1941025624999999E-4</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="3"/>
+        <v>0.217493515044</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>144</v>
       </c>
@@ -8863,8 +12372,25 @@
       <c r="G116">
         <v>0.97388081731600007</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O116">
+        <v>294</v>
+      </c>
+      <c r="P116">
+        <v>1.0562200000000001E-2</v>
+      </c>
+      <c r="Q116">
+        <v>0.41914200000000001</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="3"/>
+        <v>1.1156006884000002E-4</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="3"/>
+        <v>0.175680016164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>145</v>
       </c>
@@ -8883,8 +12409,25 @@
       <c r="G117">
         <v>0.97223938448399994</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O117">
+        <v>295</v>
+      </c>
+      <c r="P117">
+        <v>1.08307E-2</v>
+      </c>
+      <c r="Q117">
+        <v>0.37425900000000001</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="3"/>
+        <v>1.1730406249E-4</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="3"/>
+        <v>0.14006979908100001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>146</v>
       </c>
@@ -8903,8 +12446,25 @@
       <c r="G118">
         <v>0.97078259008900003</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O118">
+        <v>296</v>
+      </c>
+      <c r="P118">
+        <v>1.10069E-2</v>
+      </c>
+      <c r="Q118">
+        <v>0.335003</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="3"/>
+        <v>1.2115184761E-4</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="3"/>
+        <v>0.112227010009</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>147</v>
       </c>
@@ -8923,8 +12483,25 @@
       <c r="G119">
         <v>0.97029986144399993</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O119">
+        <v>297</v>
+      </c>
+      <c r="P119">
+        <v>1.1103399999999999E-2</v>
+      </c>
+      <c r="Q119">
+        <v>0.30076900000000001</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="3"/>
+        <v>1.2328549155999998E-4</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="3"/>
+        <v>9.0461991360999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>148</v>
       </c>
@@ -8943,8 +12520,25 @@
       <c r="G120">
         <v>0.97106045977599997</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O120">
+        <v>298</v>
+      </c>
+      <c r="P120">
+        <v>1.1166199999999999E-2</v>
+      </c>
+      <c r="Q120">
+        <v>0.27083200000000002</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="3"/>
+        <v>1.2468402243999999E-4</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="3"/>
+        <v>7.3349972224000012E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>149</v>
       </c>
@@ -8963,8 +12557,25 @@
       <c r="G121">
         <v>0.97296523209999997</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O121">
+        <v>299</v>
+      </c>
+      <c r="P121">
+        <v>1.12473E-2</v>
+      </c>
+      <c r="Q121">
+        <v>0.24452399999999999</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="3"/>
+        <v>1.2650175729E-4</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="3"/>
+        <v>5.9791986575999996E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>150</v>
       </c>
@@ -8983,8 +12594,25 @@
       <c r="G122">
         <v>0.97569154844099992</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O122">
+        <v>300</v>
+      </c>
+      <c r="P122">
+        <v>1.1402600000000001E-2</v>
+      </c>
+      <c r="Q122">
+        <v>0.221251</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="3"/>
+        <v>1.3001928676000001E-4</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="3"/>
+        <v>4.8952005000999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151</v>
       </c>
@@ -9004,7 +12632,7 @@
         <v>0.97880352902500001</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>152</v>
       </c>
@@ -9024,7 +12652,7 @@
         <v>0.98183921088400006</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>153</v>
       </c>
@@ -9044,7 +12672,7 @@
         <v>0.98438543424399993</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>154</v>
       </c>
@@ -9064,7 +12692,7 @@
         <v>0.98614830249999996</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>155</v>
       </c>
@@ -9084,7 +12712,7 @@
         <v>0.98697668008899997</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>156</v>
       </c>
@@ -9104,7 +12732,7 @@
         <v>0.98689521747600006</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>157</v>
       </c>
@@ -9124,7 +12752,7 @@
         <v>0.98609269248399989</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>158</v>
       </c>
@@ -9144,7 +12772,7 @@
         <v>0.98487959292100014</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>159</v>
       </c>
@@ -9164,7 +12792,7 @@
         <v>0.98365137126400004</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>160</v>
       </c>
@@ -9184,7 +12812,7 @@
         <v>0.98280059776899997</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>161</v>
       </c>
@@ -9204,7 +12832,7 @@
         <v>0.98263802096099995</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>162</v>
       </c>
@@ -9224,7 +12852,7 @@
         <v>0.98328245923599999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>163</v>
       </c>
@@ -9244,7 +12872,7 @@
         <v>0.98452434182400006</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>164</v>
       </c>
@@ -9264,7 +12892,7 @@
         <v>0.98569949497600007</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>165</v>
       </c>
@@ -9284,7 +12912,7 @@
         <v>0.98553667856400007</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>166</v>
       </c>
@@ -9304,7 +12932,7 @@
         <v>0.98195811984399994</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>167</v>
       </c>
@@ -9324,7 +12952,7 @@
         <v>0.97203035905599999</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>168</v>
       </c>
@@ -9344,7 +12972,7 @@
         <v>0.95210757759999998</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>169</v>
       </c>
@@ -9364,7 +12992,7 @@
         <v>0.91840788889599989</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>170</v>
       </c>
@@ -9384,7 +13012,7 @@
         <v>0.86806488999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>171</v>
       </c>
@@ -9404,7 +13032,7 @@
         <v>0.80044514497600006</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>172</v>
       </c>
@@ -9424,7 +13052,7 @@
         <v>0.71808845480099992</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>173</v>
       </c>
@@ -9444,7 +13072,7 @@
         <v>0.62651182562500007</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>174</v>
       </c>
@@ -9464,7 +13092,7 @@
         <v>0.53274817081600001</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>175</v>
       </c>
@@ -9484,7 +13112,7 @@
         <v>0.44335355910399998</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>176</v>
       </c>
@@ -9504,7 +13132,7 @@
         <v>0.36295443684900003</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>177</v>
       </c>
@@ -9524,7 +13152,7 @@
         <v>0.29383880076100005</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>178</v>
       </c>
@@ -9544,7 +13172,7 @@
         <v>0.236346684025</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>179</v>
       </c>
@@ -9564,7 +13192,7 @@
         <v>0.18959754318399999</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>180</v>
       </c>
@@ -9584,7 +13212,7 @@
         <v>0.152128081296</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>181</v>
       </c>
@@ -9604,7 +13232,7 @@
         <v>0.12234464928399999</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>182</v>
       </c>
@@ -9624,7 +13252,7 @@
         <v>9.8758090563999992E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>183</v>
       </c>
@@ -9644,7 +13272,7 @@
         <v>8.008899999999998E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>184</v>
       </c>
@@ -9664,7 +13292,7 @@
         <v>6.528638214400001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>185</v>
       </c>
@@ -9684,7 +13312,7 @@
         <v>5.3511255625000004E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>186</v>
       </c>
@@ -9704,7 +13332,7 @@
         <v>4.4105040144000004E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>187</v>
       </c>
@@ -9724,7 +13352,7 @@
         <v>3.6554763248999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>188</v>
       </c>
@@ -9744,7 +13372,7 @@
         <v>3.0463164368999998E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>189</v>
       </c>
@@ -9764,7 +13392,7 @@
         <v>2.5521979536000002E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>190</v>
       </c>
@@ -9784,7 +13412,7 @@
         <v>2.1492439609000002E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>191</v>
       </c>
@@ -9804,7 +13432,7 @@
         <v>1.8188837956000004E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>192</v>
       </c>
@@ -9824,7 +13452,7 @@
         <v>1.5466404496000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>193</v>
       </c>
@@ -9844,7 +13472,7 @@
         <v>1.3211203600000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>194</v>
       </c>
@@ -9864,7 +13492,7 @@
         <v>1.1333944521E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>195</v>
       </c>
@@ -9884,7 +13512,7 @@
         <v>9.763969443840002E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>196</v>
       </c>
@@ -9904,7 +13532,7 @@
         <v>8.4448196784899995E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>197</v>
       </c>
@@ -9924,7 +13552,7 @@
         <v>7.33160637504E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>198</v>
       </c>
@@ -9944,7 +13572,7 @@
         <v>6.3882134316900008E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>199</v>
       </c>
@@ -9964,7 +13592,7 @@
         <v>5.58548464321E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>200</v>
       </c>
@@ -9984,7 +13612,7 @@
         <v>4.8998040019599988E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>201</v>
       </c>
@@ -10004,7 +13632,7 @@
         <v>4.311931624089999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>202</v>
       </c>
@@ -10024,7 +13652,7 @@
         <v>3.8061002809600003E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>203</v>
       </c>
@@ -10044,7 +13672,7 @@
         <v>3.3693729436900001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>204</v>
       </c>
@@ -10064,7 +13692,7 @@
         <v>2.9910617283600001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>205</v>
       </c>
@@ -10084,7 +13712,7 @@
         <v>2.6623432844100001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>206</v>
       </c>
@@ -10104,7 +13732,7 @@
         <v>2.3758313062500003E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>207</v>
       </c>
@@ -10124,7 +13752,7 @@
         <v>2.1253851836100001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>208</v>
       </c>
@@ -10144,7 +13772,7 @@
         <v>1.9058463360000001E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>209</v>
       </c>
@@ -10164,7 +13792,7 @@
         <v>1.7128920464100003E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>210</v>
       </c>
@@ -10184,7 +13812,7 @@
         <v>1.54285555264E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>211</v>
       </c>
@@ -10204,7 +13832,7 @@
         <v>1.39264058761E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>212</v>
       </c>
@@ -10224,7 +13852,7 @@
         <v>1.2596181792099998E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>213</v>
       </c>
@@ -10244,7 +13872,7 @@
         <v>1.1415478542399998E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>214</v>
       </c>
@@ -10264,7 +13892,7 @@
         <v>1.0365180250000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>215</v>
       </c>
@@ -10284,7 +13912,7 @@
         <v>9.4288300095999992E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>216</v>
       </c>
@@ -10304,7 +13932,7 @@
         <v>8.5922851876000009E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>217</v>
       </c>
@@ -10324,7 +13952,7 @@
         <v>7.8434163720999997E-4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>218</v>
       </c>
@@ -10344,7 +13972,7 @@
         <v>7.1717375601000003E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>219</v>
       </c>
@@ -10364,7 +13992,7 @@
         <v>6.5681488655999992E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>220</v>
       </c>
@@ -10384,7 +14012,7 @@
         <v>6.0247666115999991E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>221</v>
       </c>
@@ -10404,7 +14032,7 @@
         <v>5.5346797080999997E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>222</v>
       </c>
@@ -10424,7 +14052,7 @@
         <v>5.0919727716E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>223</v>
       </c>
@@ -10444,7 +14072,7 @@
         <v>4.6912960835999995E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>224</v>
       </c>
@@ -10464,7 +14092,7 @@
         <v>4.3281889849000003E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>225</v>
       </c>
@@ -10484,7 +14112,7 @@
         <v>3.9985201369000005E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>226</v>
       </c>
@@ -10504,7 +14132,7 @@
         <v>3.6987751684000006E-4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>227</v>
       </c>
@@ -10524,7 +14152,7 @@
         <v>3.4258678281000001E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>228</v>
       </c>
@@ -10544,7 +14172,7 @@
         <v>3.1770210563999995E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>229</v>
       </c>
@@ -10564,7 +14192,7 @@
         <v>2.9497719001000001E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>230</v>
       </c>
@@ -10584,7 +14212,7 @@
         <v>2.7419716921000002E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>231</v>
       </c>
@@ -10595,7 +14223,7 @@
         <v>2.9235186289000001E-4</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>232</v>
       </c>
@@ -10606,7 +14234,7 @@
         <v>2.7679975129000004E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>233</v>
       </c>
@@ -10617,7 +14245,7 @@
         <v>2.6232985155999993E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>234</v>
       </c>
@@ -10628,7 +14256,7 @@
         <v>2.4884747001000006E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>235</v>
       </c>
@@ -10639,7 +14267,7 @@
         <v>2.3627993796E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>236</v>
       </c>
@@ -10650,7 +14278,7 @@
         <v>2.2455322200999999E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>237</v>
       </c>
@@ -10661,7 +14289,7 @@
         <v>2.1359822499999998E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>238</v>
       </c>
@@ -10672,7 +14300,7 @@
         <v>2.0335615609E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>239</v>
       </c>
@@ -10683,7 +14311,7 @@
         <v>1.9377196804000002E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>240</v>
       </c>
@@ -10694,7 +14322,7 @@
         <v>1.8479955481E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>241</v>
       </c>
@@ -10705,7 +14333,7 @@
         <v>1.7638761721E-4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>242</v>
       </c>
@@ -10716,7 +14344,7 @@
         <v>1.6849857248999998E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>243</v>
       </c>
@@ -10727,7 +14355,7 @@
         <v>1.6109194084000002E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>244</v>
       </c>
@@ -10738,7 +14366,7 @@
         <v>1.5413222500000002E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>245</v>
       </c>
@@ -10749,7 +14377,7 @@
         <v>1.4759091169000001E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>246</v>
       </c>
@@ -10760,7 +14388,7 @@
         <v>1.4143631329000003E-4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>247</v>
       </c>
@@ -10771,7 +14399,7 @@
         <v>1.3564096225000003E-4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>248</v>
       </c>
@@ -10782,7 +14410,7 @@
         <v>1.3017897216000002E-4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>249</v>
       </c>
@@ -10793,7 +14421,7 @@
         <v>1.2503265124000002E-4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>250</v>
       </c>
@@ -10804,7 +14432,7 @@
         <v>1.2017421376000001E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>251</v>
       </c>
@@ -10815,7 +14443,7 @@
         <v>1.1558830144000001E-4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>252</v>
       </c>
@@ -10826,7 +14454,7 @@
         <v>1.1125608484E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>253</v>
       </c>
@@ -10837,7 +14465,7 @@
         <v>1.0716183361000001E-4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>254</v>
       </c>
@@ -10848,7 +14476,7 @@
         <v>1.0328860160999999E-4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>255</v>
       </c>
@@ -10859,7 +14487,7 @@
         <v>9.9624153816099987E-5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>256</v>
       </c>
@@ -10870,7 +14498,7 @@
         <v>9.6153517524100003E-5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>257</v>
       </c>
@@ -10881,7 +14509,7 @@
         <v>9.28652159556E-5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>258</v>
       </c>
@@ -10892,7 +14520,7 @@
         <v>8.9747960131600018E-5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>259</v>
       </c>
@@ -10903,7 +14531,7 @@
         <v>8.6791396116100007E-5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>260</v>
       </c>
@@ -10914,7 +14542,7 @@
         <v>8.3985860784399993E-5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>261</v>
       </c>
@@ -10925,7 +14553,7 @@
         <v>8.1322159694400016E-5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>262</v>
       </c>
@@ -10936,7 +14564,7 @@
         <v>7.8791897190400015E-5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>263</v>
       </c>
@@ -10947,7 +14575,7 @@
         <v>7.6387425200099995E-5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>264</v>
       </c>
@@ -10958,7 +14586,7 @@
         <v>7.4101451568399997E-5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>265</v>
       </c>
@@ -10969,7 +14597,7 @@
         <v>7.1927021760400018E-5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>266</v>
       </c>
@@ -10980,7 +14608,7 @@
         <v>6.9857835610000009E-5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>267</v>
       </c>
@@ -10991,7 +14619,7 @@
         <v>6.7888206724900013E-5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>268</v>
       </c>
@@ -11002,7 +14630,7 @@
         <v>6.6012375039999996E-5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>269</v>
       </c>
@@ -11013,7 +14641,7 @@
         <v>6.4225317964900004E-5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>270</v>
       </c>
@@ -11024,7 +14652,7 @@
         <v>6.2522072268100001E-5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>271</v>
       </c>
@@ -11035,7 +14663,7 @@
         <v>6.0884156008900001E-5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>272</v>
       </c>
@@ -11046,7 +14674,7 @@
         <v>5.9321728243600003E-5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>273</v>
       </c>
@@ -11057,7 +14685,7 @@
         <v>5.7830701622500001E-5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>274</v>
       </c>
@@ -11068,7 +14696,7 @@
         <v>5.6407610249999998E-5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>275</v>
       </c>
@@ -11079,7 +14707,7 @@
         <v>5.5048683470399998E-5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>276</v>
       </c>
@@ -11090,7 +14718,7 @@
         <v>5.3750892250000005E-5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>277</v>
       </c>
@@ -11101,7 +14729,7 @@
         <v>5.2511182531599996E-5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>278</v>
       </c>
@@ -11112,7 +14740,7 @@
         <v>5.1326334777599993E-5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>279</v>
       </c>
@@ -11123,7 +14751,7 @@
         <v>5.0193965952899996E-5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>280</v>
       </c>
@@ -11134,7 +14762,7 @@
         <v>4.9111363202499995E-5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>281</v>
       </c>
@@ -11145,7 +14773,7 @@
         <v>4.8076195690000003E-5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>282</v>
       </c>
@@ -11156,7 +14784,7 @@
         <v>4.7086220563600007E-5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>283</v>
       </c>
@@ -11167,7 +14795,7 @@
         <v>4.6139278908100005E-5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>284</v>
       </c>
@@ -11178,7 +14806,7 @@
         <v>4.52334263364E-5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>285</v>
       </c>
@@ -11189,7 +14817,7 @@
         <v>4.4366523072399991E-5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>286</v>
       </c>
@@ -11200,7 +14828,7 @@
         <v>4.3537166992899997E-5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>287</v>
       </c>
@@ -11211,7 +14839,7 @@
         <v>4.2743482622500003E-5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>288</v>
       </c>
@@ -11222,7 +14850,7 @@
         <v>4.1983790660100001E-5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>289</v>
       </c>
@@ -11233,7 +14861,7 @@
         <v>4.1256855922499996E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>290</v>
       </c>
@@ -11244,7 +14872,7 @@
         <v>4.0561103937600002E-5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>291</v>
       </c>
@@ -11255,7 +14883,7 @@
         <v>3.98951403876E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>292</v>
       </c>
@@ -11266,7 +14894,7 @@
         <v>3.9257868672099998E-5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>293</v>
       </c>
@@ -11277,7 +14905,7 @@
         <v>3.8648104897599999E-5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>294</v>
       </c>
@@ -11288,7 +14916,7 @@
         <v>3.8064581122499995E-5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>295</v>
       </c>
@@ -11299,7 +14927,7 @@
         <v>3.7506315577600005E-5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>296</v>
       </c>
@@ -11310,7 +14938,7 @@
         <v>3.6972358640100003E-5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>297</v>
       </c>
@@ -11321,7 +14949,7 @@
         <v>3.6461791489600005E-5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>298</v>
       </c>
@@ -11332,7 +14960,7 @@
         <v>3.597360484E-5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>299</v>
       </c>
@@ -11343,7 +14971,7 @@
         <v>3.5507059088400003E-5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>300</v>
       </c>
